--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>type</t>
   </si>
@@ -85,13 +85,10 @@
     <t>relation</t>
   </si>
   <si>
-    <t>deal</t>
-  </si>
-  <si>
-    <t>deal_contacts</t>
-  </si>
-  <si>
-    <t>deal_companys</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>product_variation</t>
   </si>
 </sst>
 </file>
@@ -720,7 +717,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -759,20 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>type</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>product_variation</t>
+  </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>subtyme</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>barcode</t>
   </si>
 </sst>
 </file>
@@ -717,7 +735,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,11 +774,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>type</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>barcode</t>
+  </si>
+  <si>
+    <t>product-group</t>
+  </si>
+  <si>
+    <t>product_group_subscription</t>
   </si>
 </sst>
 </file>
@@ -735,13 +741,13 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -844,7 +850,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="480" windowWidth="28515" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="create-fields" sheetId="8" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>product_group_subscription</t>
+  </si>
+  <si>
+    <t>product_variation_option</t>
+  </si>
+  <si>
+    <t>product_bridge_variation</t>
+  </si>
+  <si>
+    <t>product_bridge_variation_option</t>
+  </si>
+  <si>
+    <t>variation-option</t>
   </si>
 </sst>
 </file>
@@ -738,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,16 +794,16 @@
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -799,18 +811,18 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -824,16 +836,16 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,34 +853,99 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -884,55 +961,55 @@
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -949,23 +1026,18 @@
     <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
+    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
@@ -984,20 +1056,26 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -753,7 +753,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,10 +946,62 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="480" windowWidth="28515" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="480" windowWidth="28515" windowHeight="12225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="create-fields" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>variation-option</t>
+  </si>
+  <si>
+    <t>Seleccione sus variaciones y guarde para visualizar sus opciones</t>
+  </si>
+  <si>
+    <t>col</t>
   </si>
 </sst>
 </file>
@@ -752,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="A16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1008,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1139,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,16 +1186,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="480" windowWidth="28515" windowHeight="12225" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="480" windowWidth="28515" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="create-fields" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>type</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>product_bridge_channel</t>
+  </si>
+  <si>
+    <t>channel</t>
   </si>
 </sst>
 </file>
@@ -756,10 +762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="A16:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,8 +1028,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1063,11 @@
     <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
     <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1039,13 +1075,14 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -1054,61 +1091,66 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
     <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
+    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
@@ -1121,32 +1163,20 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
+    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1158,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
